--- a/Documentation/Yankauer_Holder_BOM.xlsx
+++ b/Documentation/Yankauer_Holder_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Yankauer-Holder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E7FB3-0AAC-43C2-B314-3AB07D3EDECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF879-C5FB-422B-9078-575C3F0DC0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="495" windowWidth="18480" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="720" windowWidth="18480" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM V1.0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Total Cost</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Date Created: 04/20/2023</t>
+  </si>
+  <si>
+    <t>https://github.com/milador/Yankauer-Holder/blob/main/Build_Files/3D_Print_Files/STL/Yankauer-Holder-Base.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/milador/Yankauer-Holder/blob/main/Build_Files/3D_Print_Files/STL/Yankauer-Holder-Clip.stl</t>
+  </si>
+  <si>
+    <t>https://github.com/milador/Yankauer-Holder/blob/main/Build_Files/3D_Print_Files/STL/Yankauer-Holder-Top.stl</t>
   </si>
 </sst>
 </file>
@@ -691,9 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -742,8 +749,8 @@
         <v>2.1833333333333331</v>
       </c>
       <c r="F2" s="6">
-        <f>SUM(E9:E11)</f>
-        <v>20.94</v>
+        <f>SUM(D9*E9,D10*E10,D11*E11)</f>
+        <v>22.330000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,7 +885,9 @@
       <c r="G9">
         <v>77</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -900,7 +909,9 @@
       <c r="G10">
         <v>46</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -910,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1.39</v>
@@ -922,7 +933,9 @@
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -934,14 +947,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,21 +1193,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1221,9 +1231,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>